--- a/medicine/Enfance/Hervé_Tullet/Hervé_Tullet.xlsx
+++ b/medicine/Enfance/Hervé_Tullet/Hervé_Tullet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Tullet</t>
+          <t>Hervé_Tullet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hervé Tullet né le 28 juin 1958 à Avranches (Manche) est un illustrateur et auteur de livres français pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Tullet</t>
+          <t>Hervé_Tullet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir fait des études d'arts plastiques et d'arts décoratifs, Hervé Tullet est directeur artistique dans la communication et la publicité pendant une dizaine d'années.
 En 1989, Hervé Tullet commence à faire des illustrations pour la presse en France et à l'étranger.
 Il publie son premier livre pour enfants en 1994 (Comment papa a rencontré maman, Hachette, 1994) tout en poursuivant son travail comme illustrateur.
-Il est auteur-illustrateur de plus de 80 titres. Il voyage beaucoup en France et à l'étranger pour la promotion de ses livres et l'animation d'ateliers réunissant parfois plusieurs centaines de personnes et reposant sur les mêmes principes d'imagination et de créativité que ses livres[1],[2],[3],[4]. Des workshops qu'il a tenu tout autour de la planète et dans de nombreux lieux prestigieux comme la Library of Congress, le MOMA ou le Guggenheim Museum.
-Son plus grands succès critique et public vient en 2010 avec Un livre (Bayard jeunesse, 2010), un livre interactif[5] vendu à plus de 2 millions d'exemplaires dans le monde, traduit en plus de 35 langues et resté plus de 6 ans sur la  New York Times Best Seller list[6], un record.
+Il est auteur-illustrateur de plus de 80 titres. Il voyage beaucoup en France et à l'étranger pour la promotion de ses livres et l'animation d'ateliers réunissant parfois plusieurs centaines de personnes et reposant sur les mêmes principes d'imagination et de créativité que ses livres. Des workshops qu'il a tenu tout autour de la planète et dans de nombreux lieux prestigieux comme la Library of Congress, le MOMA ou le Guggenheim Museum.
+Son plus grands succès critique et public vient en 2010 avec Un livre (Bayard jeunesse, 2010), un livre interactif vendu à plus de 2 millions d'exemplaires dans le monde, traduit en plus de 35 langues et resté plus de 6 ans sur la  New York Times Best Seller list, un record.
 Installé aux États-Unis depuis 2015, il y a conçu des expositions au centre d'art contemporain Invisible Dog Art Center ou au Children's Museum of Pittsburgh (en).
-En 2018, il a tenu sa première grande rétrospective à Seoul en Corée[7].
-Il lance en 2018 L'Expo idéale avec Hervé Tullet, un projet multiforme issu d'une performance au Livart à Montréal dans lequel il propose à chacun de réaliser son exposition en suivant ses gestes. Le projet se compose d'ateliers vidéos sous forme de web-série et d'un dispositif de partage sous forme d'exposition collective[8].
-Il s'est aussi engagé dans le soutien à une action de formation d'enfants orphelins en difficulté au Malawi[9].
+En 2018, il a tenu sa première grande rétrospective à Seoul en Corée.
+Il lance en 2018 L'Expo idéale avec Hervé Tullet, un projet multiforme issu d'une performance au Livart à Montréal dans lequel il propose à chacun de réaliser son exposition en suivant ses gestes. Le projet se compose d'ateliers vidéos sous forme de web-série et d'un dispositif de partage sous forme d'exposition collective.
+Il s'est aussi engagé dans le soutien à une action de formation d'enfants orphelins en difficulté au Malawi.
 Ses livres ont été traduits dans plus de 35 langues étrangères.
-Il a trois enfants[10].
+Il a trois enfants.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Tullet</t>
+          <t>Hervé_Tullet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,8 +568,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Texte et illustrations
-Années 2010
+          <t>Texte et illustrations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fleurs, Bayard jeunesse, 2019
 J'ai une idée, Bayard jeunesse, 2018
 Points Points, Bayard jeunesse, 2018
@@ -580,10 +603,50 @@
 Jeu de lumière, Phaidon, mars 2011
 Jeu du hasard, Phaidon, mars 2011
 Atelier ciseaux, Éditions Sarbacane, 2010
-Un livre, Bayard jeunesse, 2010[11] existe en version pour tablettes et ordiphones
+Un livre, Bayard jeunesse, 2010 existe en version pour tablettes et ordiphones
 Batailles de couleur, Bayard jeunesse, 2010
 Atelier dessin, Bayard jeunesse, 2010
-Années 2000
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hervé_Tullet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Tullet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Texte et illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Turlututu, coucou c’est moi !, Bayard jeunesse, 2009
 Livre de coloriages, Bayard jeunesse, 2009
 Du coq à l'âne, avec Pascale Petit, Éditions Sarbacane, 2009
@@ -600,7 +663,7 @@
 Jeu du cirque, Éditions du Panama, 2007
 Jeu de construction, Éditions du Panama, 2007
 L’Agenda du (presque) poète, avec Bernard Friot, Éditions de La Martinière, 2007
-Hubbub, avec Vincent Brocvieille, Milet Publishing, 2007[12]
+Hubbub, avec Vincent Brocvieille, Milet Publishing, 2007
 Jeu des couleurs, Éditions du Panama, 2006
 Jeu de lumière, Éditions du Panama, 2006
 Jeu des yeux, Éditions du Panama, 2006
@@ -623,44 +686,121 @@
 Petit ou grand, Seuil Jeunesse, 2000
 Mais qu’est ce qui cloche, Seuil Jeunesse, 2000
 Vous avez déjà essayé ?, Seuil Jeunesse, 2000
-Années 1990
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hervé_Tullet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Tullet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Texte et illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Copain Kopain, Seuil Jeunesse, 1999
 J’arrive, Seuil Jeunesse, 1999
 Faut pas confondre, Seuil Jeunesse, 1998
 Comment j’ai sauvé ma maman, Seuil Jeunesse, 1997
 Comment j’ai sauvé mon papa, Hachette, 1996
 Comment papa a rencontré maman, Hachette, 1995
-Illustrations
-Rémi Bertrand, Un bouquin n'est pas un livre : les nuances des synonymes, Points, 2006
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hervé_Tullet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Tullet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rémi Bertrand, Un bouquin n'est pas un livre : les nuances des synonymes, Points, 2006
 François Reynaert, Marie-Odile Briet, Valérie Henau, Pour en finir avec les années 80 : petite sociologie de l'époque, Calmann-Lévy, 1989</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Herv%C3%A9_Tullet</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hervé_Tullet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Tullet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1998 :  Prix BolognaRagazzi de la Foire du livre de jeunesse de Bologne Catégorie non-fiction pour Faut pas confondre
 2007 : Prix France Télévisions pour Turlututu, histoires magiques
@@ -669,10 +809,10 @@
 2010 : Prix de l'Union internationale pour les livres de jeunesse (IBBY) pour Un livre
 2011 : Pépite de la création numérique au salon du livre et de la presse jeunesse en Seine-Saint-Denis pour Un Jeu
 2012 :  Prix Bernard Versele 2012 dans la catégorie "une chouette" pour Un livre
-2012 : (international) « Honour List »[13] de l'IBBY pour Un livre
-2018 :  Prix Chen Bochui de Shanghai de meilleur artiste de l'année pour J'ai une Idée[14]
-2018 :  CLEL Bell Award 2018[15] pour (en) Say Zoop!
-2021 :  Premio nazionale Nati per Leggere[16] du Salon international du livre (Turin) pour Fleurs</t>
+2012 : (international) « Honour List » de l'IBBY pour Un livre
+2018 :  Prix Chen Bochui de Shanghai de meilleur artiste de l'année pour J'ai une Idée
+2018 :  CLEL Bell Award 2018 pour (en) Say Zoop!
+2021 :  Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour Fleurs</t>
         </is>
       </c>
     </row>
